--- a/ParserCodes/ll1_analysis.xlsx
+++ b/ParserCodes/ll1_analysis.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FIRST Sets" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FOLLOW Sets" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Parsing Table" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="LL(1) Conditions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FIRST Sets" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FOLLOW Sets" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parsing Table" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LL(1) Conditions" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>arg → NUMBER | STRING</t>
+          <t>arg → NUMBER</t>
         </is>
       </c>
     </row>
@@ -753,12 +753,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>args</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>args → arg ("," arg)*</t>
+          <t>arg → STRING</t>
         </is>
       </c>
     </row>
@@ -768,12 +768,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>args</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>call_stmt → ID "(" args? ")" ";"</t>
+          <t>args → arg ("," arg)*</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
+          <t>call_stmt → ID "(" args? ")" ";"</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>program → stmt_list</t>
+          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>program</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>stmt → for_stmt</t>
+          <t>program → stmt_list</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>stmt → call_stmt</t>
+          <t>stmt → for_stmt</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>stmt_list → stmt</t>
+          <t>stmt → call_stmt</t>
         </is>
       </c>
     </row>
@@ -862,6 +862,21 @@
         </is>
       </c>
       <c r="C10" t="inlineStr">
+        <is>
+          <t>stmt_list → stmt</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>stmt_list</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>stmt_list → stmt stmt_list</t>
         </is>
@@ -916,7 +931,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -933,7 +948,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1194,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,7 +1231,6 @@
     <col width="25" customWidth="1" min="12" max="12"/>
     <col width="25" customWidth="1" min="13" max="13"/>
     <col width="25" customWidth="1" min="14" max="14"/>
-    <col width="25" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1290,11 +1304,6 @@
           <t>args?</t>
         </is>
       </c>
-      <c r="O1" s="12" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -1349,12 +1358,12 @@
       </c>
       <c r="K2" s="14" t="inlineStr">
         <is>
-          <t>arg → NUMBER | STRING</t>
-        </is>
-      </c>
-      <c r="L2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>arg → NUMBER</t>
+        </is>
+      </c>
+      <c r="L2" s="14" t="inlineStr">
+        <is>
+          <t>arg → STRING</t>
         </is>
       </c>
       <c r="M2" s="13" t="inlineStr">
@@ -1363,11 +1372,6 @@
         </is>
       </c>
       <c r="N2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O2" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1429,9 +1433,9 @@
           <t>args → arg ("," arg)*</t>
         </is>
       </c>
-      <c r="L3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="L3" s="14" t="inlineStr">
+        <is>
+          <t>args → arg ("," arg)*</t>
         </is>
       </c>
       <c r="M3" s="13" t="inlineStr">
@@ -1440,11 +1444,6 @@
         </is>
       </c>
       <c r="N3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O3" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1521,11 +1520,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O4" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -1598,11 +1592,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -1675,11 +1664,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -1752,11 +1736,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -1825,11 +1804,6 @@
         </is>
       </c>
       <c r="N8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
